--- a/biology/Médecine/Tomographie/Tomographie.xlsx
+++ b/biology/Médecine/Tomographie/Tomographie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La tomographie est une technique d’imagerie, très utilisée dans l’imagerie médicale, ainsi qu’en géophysique, en astrophysique et en mécanique des matériaux.
@@ -513,7 +525,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La tomographie (racine grecque tomê, coupe, et ainsi représentation en coupes) est une technique qui consiste à reconstruire le volume d’un objet (le corps humain dans le cas de l’imagerie médicale, une structure géologique dans le cas de la géophysique) à partir d’une série de mesures déportées à l’extérieur de l’objet. Ces mesures peuvent être effectuées à la surface même ou à une certaine distance. Le résultat est une reconstruction de certaines propriétés de l’intérieur de l’objet, selon le type d’information que fournissent les capteurs (capture d’une particule, pression acoustique, atténuation d’un faisceau lumineux, différence de vitesse ou de polarisation d’ondes sismique…).
 L’IRM, par exemple, peut fournir des données anatomiques qui, bien que similaires à ce que l’on obtiendrait en découpant l’objet en fines lamelles et en photographiant ces lamelles, sont en fait une cartographie due à la relaxation (retour à l’état d’équilibre) différentielle des spins de l’atome d’hydrogène dans l’eau - constituant principal des tissus organiques.
@@ -553,12 +567,14 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tomographie peut être utilisée dans de nombreux domaines. Dans le domaine de la santé, avec l'imagerie médicale[1], ou en biologie. En microscopie, la tomographie permet par exemple de mieux comprendre comment fonctionne le « moteur biologique » flagellaire qui permet aux bactéries motiles de se déplacer rapidement dans les liquides ou fluides visqueux (c'est le cas des bactéries hélicoïdales spirochètes[2]). Par ailleurs, le Pr Rubén Fernández-Busnadiego et son équipe ont réussi à reconstruire le modèle d’une synapse en fonctionnement, le tout en 3D[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tomographie peut être utilisée dans de nombreux domaines. Dans le domaine de la santé, avec l'imagerie médicale, ou en biologie. En microscopie, la tomographie permet par exemple de mieux comprendre comment fonctionne le « moteur biologique » flagellaire qui permet aux bactéries motiles de se déplacer rapidement dans les liquides ou fluides visqueux (c'est le cas des bactéries hélicoïdales spirochètes). Par ailleurs, le Pr Rubén Fernández-Busnadiego et son équipe ont réussi à reconstruire le modèle d’une synapse en fonctionnement, le tout en 3D.
 En dehors du domaine de la santé, la tomographie est utilisée en paléontologie et en archéologie. Appliquée à la paléoanthropologie, la tomodensitométrie permet d’étudier les structures internes des hominidés fossiles et de compenser les altérations subies au cours de la fossilisation (fossile d’homo erectus de Yunxian en Chine).
-La tomographie a de nombreuses applications en contrôle qualité dans l'industrie[4] comme la détection de défauts (porosités, inclusions, fissures), l'optimisation de la conception et le contrôle non-destructif.
-Enfin, cette technique est aussi utilisée en géophysique, prospection pétrolière, physique et science des matériaux ainsi que pour le contrôle de production de pièces[5] et le contrôle de bagages.
+La tomographie a de nombreuses applications en contrôle qualité dans l'industrie comme la détection de défauts (porosités, inclusions, fissures), l'optimisation de la conception et le contrôle non-destructif.
+Enfin, cette technique est aussi utilisée en géophysique, prospection pétrolière, physique et science des matériaux ainsi que pour le contrôle de production de pièces et le contrôle de bagages.
 </t>
         </is>
       </c>
@@ -587,7 +603,9 @@
           <t>Techniques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les principales techniques tomographiques sont :
 la tomographie axiale calculée aux rayons X (scanner ou CT ou tomographie, dont un cas particulier est le Cone beam, qui utilise un faisceau cônique et peut permettre une reconstitution 3D de la partie du corps observée) ;
@@ -599,7 +617,7 @@
 le microscope à effet de champ est parfois appelé sonde tomographique atomique ;
 la tomographie électronique (en) et la cryotomographie électronique permettent d’obtenir une représentation tridimensionnelle d’un objet à la résolution de quelques nanomètres (milliardième de mètre) à l’aide d’un microscope électronique en transmission spécialement équipé ;
 la tomographie sismique, qui permet d’imager des structures géologiques grâce à des séismes ;
-la tomographie électrique[6] ou « tomographie de la résistivité électrique » (ERT)[7] ;
+la tomographie électrique ou « tomographie de la résistivité électrique » (ERT) ;
 l’imagerie Zeeman-Doppler, utilisée en astrophysique pour cartographier le champ magnétique de surface des étoiles ;
 la tomographie neutronique (en) (radiographie neutronique, NR, Nray, N-ray) ;
 la tomographie muonique ;
@@ -635,10 +653,12 @@
           <t>Pionniers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Keiiti Aki (1930-2005), sismologue japonais
-Jean Porcher et Raymond Sans co-inventeurs français du procédé à l'origine du Polytome Massiot améliorant la précision au millimètre de la tomographie appliquée à l'imagerie médicale[8]</t>
+Jean Porcher et Raymond Sans co-inventeurs français du procédé à l'origine du Polytome Massiot améliorant la précision au millimètre de la tomographie appliquée à l'imagerie médicale</t>
         </is>
       </c>
     </row>
